--- a/data/men/M_2019_05_MCR.xlsx
+++ b/data/men/M_2019_05_MCR.xlsx
@@ -8,38 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA5626-4B3C-47CD-BC40-6310F12E7605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF8018-8BC6-4E4B-89C0-2C54CE060C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="-16272" windowWidth="19836" windowHeight="14820" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="-13836" windowWidth="25488" windowHeight="10380" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4655" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -394,6 +407,9 @@
   <si>
     <t>ŽIŽKA David</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -536,6 +552,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,11 +832,3917 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F717059F-B564-4243-839D-56F4CA490CCA}">
+  <dimension ref="A1:Q85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="22">
+        <v>31</v>
+      </c>
+      <c r="H2" s="21">
+        <v>28313</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="19">
+        <v>13</v>
+      </c>
+      <c r="L2" s="19">
+        <v>22</v>
+      </c>
+      <c r="M2" s="19">
+        <v>-9</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="19">
+        <v>52</v>
+      </c>
+      <c r="P2" s="22">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="35">
+        <f>P2/MAX($P$2:$P$66)</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="22">
+        <v>14</v>
+      </c>
+      <c r="H3" s="21">
+        <v>36099</v>
+      </c>
+      <c r="I3" s="22">
+        <v>4</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="22">
+        <v>22</v>
+      </c>
+      <c r="L3" s="22">
+        <v>17</v>
+      </c>
+      <c r="M3" s="22">
+        <v>5</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="22">
+        <v>16</v>
+      </c>
+      <c r="P3" s="22">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="35">
+        <f t="shared" ref="Q3:Q66" si="0">P3/MAX($P$2:$P$66)</f>
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="22">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21">
+        <v>29969</v>
+      </c>
+      <c r="I4" s="22">
+        <v>6</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>30</v>
+      </c>
+      <c r="L4" s="22">
+        <v>8</v>
+      </c>
+      <c r="M4" s="22">
+        <v>22</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="22">
+        <v>2</v>
+      </c>
+      <c r="P4" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="35">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="22">
+        <v>28</v>
+      </c>
+      <c r="H5" s="21">
+        <v>35185</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="22">
+        <v>11</v>
+      </c>
+      <c r="L5" s="22">
+        <v>21</v>
+      </c>
+      <c r="M5" s="22">
+        <v>-10</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="22">
+        <v>53</v>
+      </c>
+      <c r="P5" s="22">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="35">
+        <f t="shared" si="0"/>
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="22">
+        <v>31</v>
+      </c>
+      <c r="H6" s="21">
+        <v>37031</v>
+      </c>
+      <c r="I6" s="22">
+        <v>3</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="22">
+        <v>18</v>
+      </c>
+      <c r="L6" s="22">
+        <v>18</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="22">
+        <v>30</v>
+      </c>
+      <c r="P6" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="22">
+        <v>66</v>
+      </c>
+      <c r="H7" s="21">
+        <v>26419</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="22">
+        <v>21</v>
+      </c>
+      <c r="L7" s="22">
+        <v>27</v>
+      </c>
+      <c r="M7" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="22">
+        <v>39</v>
+      </c>
+      <c r="P7" s="22">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="35">
+        <f t="shared" si="0"/>
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>41</v>
+      </c>
+      <c r="H8" s="21">
+        <v>33038</v>
+      </c>
+      <c r="I8" s="22">
+        <v>5</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K8" s="22">
+        <v>27</v>
+      </c>
+      <c r="L8" s="22">
+        <v>22</v>
+      </c>
+      <c r="M8" s="22">
+        <v>5</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="22">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="35">
+        <f t="shared" si="0"/>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
+        <v>44</v>
+      </c>
+      <c r="H9" s="21">
+        <v>37662</v>
+      </c>
+      <c r="I9" s="22">
+        <v>3</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="22">
+        <v>26</v>
+      </c>
+      <c r="L9" s="22">
+        <v>19</v>
+      </c>
+      <c r="M9" s="22">
+        <v>7</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="22">
+        <v>31</v>
+      </c>
+      <c r="P9" s="22">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="22">
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>30573</v>
+      </c>
+      <c r="I10" s="22">
+        <v>5</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K10" s="22">
+        <v>29</v>
+      </c>
+      <c r="L10" s="22">
+        <v>15</v>
+      </c>
+      <c r="M10" s="22">
+        <v>14</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="22">
+        <v>5</v>
+      </c>
+      <c r="P10" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="35">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="22">
+        <v>7</v>
+      </c>
+      <c r="H11" s="21">
+        <v>33595</v>
+      </c>
+      <c r="I11" s="22">
+        <v>4</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="22">
+        <v>19</v>
+      </c>
+      <c r="L11" s="22">
+        <v>16</v>
+      </c>
+      <c r="M11" s="22">
+        <v>3</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="22">
+        <v>17</v>
+      </c>
+      <c r="P11" s="22">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="35">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="22">
+        <v>9</v>
+      </c>
+      <c r="H12" s="21">
+        <v>35542</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22">
+        <v>24</v>
+      </c>
+      <c r="L12" s="22">
+        <v>11</v>
+      </c>
+      <c r="M12" s="22">
+        <v>13</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="22">
+        <v>3</v>
+      </c>
+      <c r="P12" s="22">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="35">
+        <f t="shared" si="0"/>
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="22">
+        <v>70</v>
+      </c>
+      <c r="H13" s="21">
+        <v>32654</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>14</v>
+      </c>
+      <c r="L13" s="22">
+        <v>30</v>
+      </c>
+      <c r="M13" s="22">
+        <v>-16</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="22">
+        <v>64</v>
+      </c>
+      <c r="P13" s="22">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="22">
+        <v>12</v>
+      </c>
+      <c r="H14" s="21">
+        <v>34315</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>16</v>
+      </c>
+      <c r="L14" s="22">
+        <v>25</v>
+      </c>
+      <c r="M14" s="22">
+        <v>-9</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="22">
+        <v>62</v>
+      </c>
+      <c r="P14" s="22">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="35">
+        <f t="shared" si="0"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22">
+        <v>49</v>
+      </c>
+      <c r="H15" s="21">
+        <v>34349</v>
+      </c>
+      <c r="I15" s="22">
+        <v>2</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="K15" s="22">
+        <v>19</v>
+      </c>
+      <c r="L15" s="22">
+        <v>25</v>
+      </c>
+      <c r="M15" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="22">
+        <v>44</v>
+      </c>
+      <c r="P15" s="22">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="35">
+        <f t="shared" si="0"/>
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="22">
+        <v>22</v>
+      </c>
+      <c r="H16" s="21">
+        <v>36046</v>
+      </c>
+      <c r="I16" s="22">
+        <v>5</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K16" s="22">
+        <v>25</v>
+      </c>
+      <c r="L16" s="22">
+        <v>19</v>
+      </c>
+      <c r="M16" s="22">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="22">
+        <v>8</v>
+      </c>
+      <c r="P16" s="22">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="35">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="22">
+        <v>44</v>
+      </c>
+      <c r="H17" s="21">
+        <v>31413</v>
+      </c>
+      <c r="I17" s="22">
+        <v>3</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="22">
+        <v>26</v>
+      </c>
+      <c r="L17" s="22">
+        <v>20</v>
+      </c>
+      <c r="M17" s="22">
+        <v>6</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="22">
+        <v>32</v>
+      </c>
+      <c r="P17" s="22">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="35">
+        <f t="shared" si="0"/>
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="22">
+        <v>10</v>
+      </c>
+      <c r="H18" s="21">
+        <v>33673</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="22">
+        <v>22</v>
+      </c>
+      <c r="L18" s="22">
+        <v>12</v>
+      </c>
+      <c r="M18" s="22">
+        <v>10</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="22">
+        <v>12</v>
+      </c>
+      <c r="P18" s="22">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="35">
+        <f t="shared" si="0"/>
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="22">
+        <v>70</v>
+      </c>
+      <c r="H19" s="21">
+        <v>21027</v>
+      </c>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="K19" s="22">
+        <v>14</v>
+      </c>
+      <c r="L19" s="22">
+        <v>25</v>
+      </c>
+      <c r="M19" s="22">
+        <v>-11</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="22">
+        <v>59</v>
+      </c>
+      <c r="P19" s="22">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="35">
+        <f t="shared" si="0"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="22">
+        <v>50</v>
+      </c>
+      <c r="H20" s="21">
+        <v>30503</v>
+      </c>
+      <c r="I20" s="22">
+        <v>3</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="22">
+        <v>22</v>
+      </c>
+      <c r="L20" s="22">
+        <v>17</v>
+      </c>
+      <c r="M20" s="22">
+        <v>5</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="22">
+        <v>24</v>
+      </c>
+      <c r="P20" s="22">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="35">
+        <f t="shared" si="0"/>
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="22">
+        <v>39</v>
+      </c>
+      <c r="H21" s="21">
+        <v>24801</v>
+      </c>
+      <c r="I21" s="22">
+        <v>3</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="22">
+        <v>21</v>
+      </c>
+      <c r="L21" s="22">
+        <v>20</v>
+      </c>
+      <c r="M21" s="22">
+        <v>1</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="22">
+        <v>28</v>
+      </c>
+      <c r="P21" s="22">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="22">
+        <v>44</v>
+      </c>
+      <c r="H22" s="21">
+        <v>26996</v>
+      </c>
+      <c r="I22" s="22">
+        <v>3</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="22">
+        <v>23</v>
+      </c>
+      <c r="L22" s="22">
+        <v>23</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="22">
+        <v>33</v>
+      </c>
+      <c r="P22" s="22">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="35">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="22">
+        <v>67</v>
+      </c>
+      <c r="H23" s="21">
+        <v>37050</v>
+      </c>
+      <c r="I23" s="22">
+        <v>2</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="K23" s="22">
+        <v>19</v>
+      </c>
+      <c r="L23" s="22">
+        <v>25</v>
+      </c>
+      <c r="M23" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="22">
+        <v>44</v>
+      </c>
+      <c r="P23" s="22">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="35">
+        <f t="shared" si="0"/>
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="22">
+        <v>23</v>
+      </c>
+      <c r="H24" s="21">
+        <v>36441</v>
+      </c>
+      <c r="I24" s="22">
+        <v>3</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="22">
+        <v>20</v>
+      </c>
+      <c r="L24" s="22">
+        <v>25</v>
+      </c>
+      <c r="M24" s="22">
+        <v>-5</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="22">
+        <v>38</v>
+      </c>
+      <c r="P24" s="22">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="35">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="22">
+        <v>55</v>
+      </c>
+      <c r="H25" s="21">
+        <v>29600</v>
+      </c>
+      <c r="I25" s="22">
+        <v>3</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="22">
+        <v>20</v>
+      </c>
+      <c r="L25" s="22">
+        <v>17</v>
+      </c>
+      <c r="M25" s="22">
+        <v>3</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="22">
+        <v>25</v>
+      </c>
+      <c r="P25" s="22">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36324</v>
+      </c>
+      <c r="I26" s="22">
+        <v>6</v>
+      </c>
+      <c r="J26" s="22">
+        <v>1</v>
+      </c>
+      <c r="K26" s="22">
+        <v>30</v>
+      </c>
+      <c r="L26" s="22">
+        <v>4</v>
+      </c>
+      <c r="M26" s="22">
+        <v>26</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1</v>
+      </c>
+      <c r="P26" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="35">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="22">
+        <v>13</v>
+      </c>
+      <c r="H27" s="21">
+        <v>35450</v>
+      </c>
+      <c r="I27" s="22">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="22">
+        <v>16</v>
+      </c>
+      <c r="L27" s="22">
+        <v>22</v>
+      </c>
+      <c r="M27" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="22">
+        <v>49</v>
+      </c>
+      <c r="P27" s="22">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="22">
+        <v>62</v>
+      </c>
+      <c r="H28" s="21">
+        <v>30784</v>
+      </c>
+      <c r="I28" s="22">
+        <v>2</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K28" s="22">
+        <v>15</v>
+      </c>
+      <c r="L28" s="22">
+        <v>21</v>
+      </c>
+      <c r="M28" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="22">
+        <v>42</v>
+      </c>
+      <c r="P28" s="22">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="35">
+        <f t="shared" si="0"/>
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="22">
+        <v>55</v>
+      </c>
+      <c r="H29" s="21">
+        <v>30695</v>
+      </c>
+      <c r="I29" s="22">
+        <v>3</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K29" s="22">
+        <v>19</v>
+      </c>
+      <c r="L29" s="22">
+        <v>17</v>
+      </c>
+      <c r="M29" s="22">
+        <v>2</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="22">
+        <v>27</v>
+      </c>
+      <c r="P29" s="22">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="35">
+        <f t="shared" si="0"/>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="22">
+        <v>39</v>
+      </c>
+      <c r="H30" s="21">
+        <v>37683</v>
+      </c>
+      <c r="I30" s="22">
+        <v>3</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="22">
+        <v>23</v>
+      </c>
+      <c r="L30" s="22">
+        <v>18</v>
+      </c>
+      <c r="M30" s="22">
+        <v>5</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" s="22">
+        <v>23</v>
+      </c>
+      <c r="P30" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="35">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="22">
+        <v>34</v>
+      </c>
+      <c r="H31" s="21">
+        <v>33414</v>
+      </c>
+      <c r="I31" s="22">
+        <v>3</v>
+      </c>
+      <c r="J31" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K31" s="22">
+        <v>18</v>
+      </c>
+      <c r="L31" s="22">
+        <v>15</v>
+      </c>
+      <c r="M31" s="22">
+        <v>3</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" s="22">
+        <v>26</v>
+      </c>
+      <c r="P31" s="22">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="35">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="22">
+        <v>28</v>
+      </c>
+      <c r="H32" s="21">
+        <v>28784</v>
+      </c>
+      <c r="I32" s="22">
+        <v>4</v>
+      </c>
+      <c r="J32" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="K32" s="22">
+        <v>25</v>
+      </c>
+      <c r="L32" s="22">
+        <v>21</v>
+      </c>
+      <c r="M32" s="22">
+        <v>4</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" s="22">
+        <v>21</v>
+      </c>
+      <c r="P32" s="22">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="22">
+        <v>16</v>
+      </c>
+      <c r="H33" s="21">
+        <v>31158</v>
+      </c>
+      <c r="I33" s="22">
+        <v>4</v>
+      </c>
+      <c r="J33" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="22">
+        <v>24</v>
+      </c>
+      <c r="L33" s="22">
+        <v>12</v>
+      </c>
+      <c r="M33" s="22">
+        <v>12</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="22">
+        <v>10</v>
+      </c>
+      <c r="P33" s="22">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="35">
+        <f t="shared" si="0"/>
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="22">
+        <v>52</v>
+      </c>
+      <c r="H34" s="21">
+        <v>30053</v>
+      </c>
+      <c r="I34" s="22">
+        <v>3</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="22">
+        <v>22</v>
+      </c>
+      <c r="L34" s="22">
+        <v>27</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-5</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="22">
+        <v>37</v>
+      </c>
+      <c r="P34" s="22">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="35">
+        <f t="shared" si="0"/>
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="22">
+        <v>59</v>
+      </c>
+      <c r="H35" s="21">
+        <v>37115</v>
+      </c>
+      <c r="I35" s="22">
+        <v>2</v>
+      </c>
+      <c r="J35" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K35" s="22">
+        <v>18</v>
+      </c>
+      <c r="L35" s="22">
+        <v>17</v>
+      </c>
+      <c r="M35" s="22">
+        <v>1</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="22">
+        <v>40</v>
+      </c>
+      <c r="P35" s="22">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="35">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="22">
+        <v>62</v>
+      </c>
+      <c r="H36" s="21">
+        <v>17990</v>
+      </c>
+      <c r="I36" s="22">
+        <v>2</v>
+      </c>
+      <c r="J36" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="K36" s="22">
+        <v>19</v>
+      </c>
+      <c r="L36" s="22">
+        <v>26</v>
+      </c>
+      <c r="M36" s="22">
+        <v>-7</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="22">
+        <v>46</v>
+      </c>
+      <c r="P36" s="22">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="22">
+        <v>11</v>
+      </c>
+      <c r="H37" s="21">
+        <v>34789</v>
+      </c>
+      <c r="I37" s="22">
+        <v>4</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K37" s="22">
+        <v>22</v>
+      </c>
+      <c r="L37" s="22">
+        <v>15</v>
+      </c>
+      <c r="M37" s="22">
+        <v>7</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="22">
+        <v>14</v>
+      </c>
+      <c r="P37" s="22">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="35">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="22">
+        <v>55</v>
+      </c>
+      <c r="H38" s="21">
+        <v>36677</v>
+      </c>
+      <c r="I38" s="22">
+        <v>1</v>
+      </c>
+      <c r="J38" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="22">
+        <v>15</v>
+      </c>
+      <c r="L38" s="22">
+        <v>21</v>
+      </c>
+      <c r="M38" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" s="22">
+        <v>50</v>
+      </c>
+      <c r="P38" s="22">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="35">
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="22">
+        <v>24</v>
+      </c>
+      <c r="H39" s="21">
+        <v>36047</v>
+      </c>
+      <c r="I39" s="22">
+        <v>4</v>
+      </c>
+      <c r="J39" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="K39" s="22">
+        <v>26</v>
+      </c>
+      <c r="L39" s="22">
+        <v>19</v>
+      </c>
+      <c r="M39" s="22">
+        <v>7</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="22">
+        <v>20</v>
+      </c>
+      <c r="P39" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="35">
+        <f t="shared" si="0"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="22">
+        <v>28</v>
+      </c>
+      <c r="H40" s="21">
+        <v>36950</v>
+      </c>
+      <c r="I40" s="22">
+        <v>1</v>
+      </c>
+      <c r="J40" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K40" s="22">
+        <v>10</v>
+      </c>
+      <c r="L40" s="22">
+        <v>21</v>
+      </c>
+      <c r="M40" s="22">
+        <v>-11</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40" s="22">
+        <v>54</v>
+      </c>
+      <c r="P40" s="22">
+        <v>54</v>
+      </c>
+      <c r="Q40" s="35">
+        <f t="shared" si="0"/>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="22">
+        <v>70</v>
+      </c>
+      <c r="H41" s="21">
+        <v>33420</v>
+      </c>
+      <c r="I41" s="22">
+        <v>1</v>
+      </c>
+      <c r="J41" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="K41" s="22">
+        <v>14</v>
+      </c>
+      <c r="L41" s="22">
+        <v>28</v>
+      </c>
+      <c r="M41" s="22">
+        <v>-14</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O41" s="22">
+        <v>61</v>
+      </c>
+      <c r="P41" s="22">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="35">
+        <f t="shared" si="0"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="22">
+        <v>52</v>
+      </c>
+      <c r="H42" s="21">
+        <v>26020</v>
+      </c>
+      <c r="I42" s="22">
+        <v>1</v>
+      </c>
+      <c r="J42" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="22">
+        <v>16</v>
+      </c>
+      <c r="L42" s="22">
+        <v>19</v>
+      </c>
+      <c r="M42" s="22">
+        <v>-3</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" s="22">
+        <v>48</v>
+      </c>
+      <c r="P42" s="22">
+        <v>48</v>
+      </c>
+      <c r="Q42" s="35">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="22">
+        <v>15</v>
+      </c>
+      <c r="H43" s="21">
+        <v>36782</v>
+      </c>
+      <c r="I43" s="22">
+        <v>4</v>
+      </c>
+      <c r="J43" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="22">
+        <v>24</v>
+      </c>
+      <c r="L43" s="22">
+        <v>13</v>
+      </c>
+      <c r="M43" s="22">
+        <v>11</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O43" s="22">
+        <v>11</v>
+      </c>
+      <c r="P43" s="22">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="35">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="25">
+        <v>5</v>
+      </c>
+      <c r="H44" s="26">
+        <v>32319</v>
+      </c>
+      <c r="I44" s="22">
+        <v>5</v>
+      </c>
+      <c r="J44" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K44" s="22">
+        <v>29</v>
+      </c>
+      <c r="L44" s="22">
+        <v>18</v>
+      </c>
+      <c r="M44" s="22">
+        <v>11</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O44" s="22">
+        <v>6</v>
+      </c>
+      <c r="P44" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="35">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="22">
+        <v>6</v>
+      </c>
+      <c r="H45" s="21">
+        <v>33430</v>
+      </c>
+      <c r="I45" s="22">
+        <v>4</v>
+      </c>
+      <c r="J45" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K45" s="22">
+        <v>23</v>
+      </c>
+      <c r="L45" s="22">
+        <v>16</v>
+      </c>
+      <c r="M45" s="22">
+        <v>7</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" s="22">
+        <v>13</v>
+      </c>
+      <c r="P45" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="35">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="22">
+        <v>35</v>
+      </c>
+      <c r="H46" s="21">
+        <v>27395</v>
+      </c>
+      <c r="I46" s="22">
+        <v>1</v>
+      </c>
+      <c r="J46" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="22">
+        <v>11</v>
+      </c>
+      <c r="L46" s="22">
+        <v>24</v>
+      </c>
+      <c r="M46" s="22">
+        <v>-13</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O46" s="22">
+        <v>55</v>
+      </c>
+      <c r="P46" s="22">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="35">
+        <f t="shared" si="0"/>
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="22">
+        <v>4</v>
+      </c>
+      <c r="H47" s="21">
+        <v>35324</v>
+      </c>
+      <c r="I47" s="22">
+        <v>5</v>
+      </c>
+      <c r="J47" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K47" s="22">
+        <v>27</v>
+      </c>
+      <c r="L47" s="22">
+        <v>12</v>
+      </c>
+      <c r="M47" s="22">
+        <v>15</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" s="22">
+        <v>4</v>
+      </c>
+      <c r="P47" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="35">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="22">
+        <v>26</v>
+      </c>
+      <c r="H48" s="21">
+        <v>25773</v>
+      </c>
+      <c r="I48" s="22">
+        <v>4</v>
+      </c>
+      <c r="J48" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="K48" s="22">
+        <v>27</v>
+      </c>
+      <c r="L48" s="22">
+        <v>20</v>
+      </c>
+      <c r="M48" s="22">
+        <v>7</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" s="22">
+        <v>19</v>
+      </c>
+      <c r="P48" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q48" s="35">
+        <f t="shared" si="0"/>
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="22">
+        <v>43</v>
+      </c>
+      <c r="H49" s="21">
+        <v>37101</v>
+      </c>
+      <c r="I49" s="22">
+        <v>3</v>
+      </c>
+      <c r="J49" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="22">
+        <v>21</v>
+      </c>
+      <c r="L49" s="22">
+        <v>24</v>
+      </c>
+      <c r="M49" s="22">
+        <v>-3</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" s="22">
+        <v>36</v>
+      </c>
+      <c r="P49" s="22">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="35">
+        <f t="shared" si="0"/>
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="22">
+        <v>17</v>
+      </c>
+      <c r="H50" s="21">
+        <v>37101</v>
+      </c>
+      <c r="I50" s="22">
+        <v>5</v>
+      </c>
+      <c r="J50" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="K50" s="22">
+        <v>28</v>
+      </c>
+      <c r="L50" s="22">
+        <v>20</v>
+      </c>
+      <c r="M50" s="22">
+        <v>8</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" s="22">
+        <v>7</v>
+      </c>
+      <c r="P50" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="35">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="22">
+        <v>20</v>
+      </c>
+      <c r="H51" s="21">
+        <v>36508</v>
+      </c>
+      <c r="I51" s="19">
+        <v>4</v>
+      </c>
+      <c r="J51" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="K51" s="19">
+        <v>22</v>
+      </c>
+      <c r="L51" s="19">
+        <v>20</v>
+      </c>
+      <c r="M51" s="19">
+        <v>2</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O51" s="19">
+        <v>22</v>
+      </c>
+      <c r="P51" s="22">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="35">
+        <f t="shared" si="0"/>
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="22">
+        <v>70</v>
+      </c>
+      <c r="H52" s="21">
+        <v>37035</v>
+      </c>
+      <c r="I52" s="19">
+        <v>1</v>
+      </c>
+      <c r="J52" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="K52" s="19">
+        <v>16</v>
+      </c>
+      <c r="L52" s="19">
+        <v>27</v>
+      </c>
+      <c r="M52" s="19">
+        <v>-11</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="19">
+        <v>58</v>
+      </c>
+      <c r="P52" s="22">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="35">
+        <f t="shared" si="0"/>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="22">
+        <v>55</v>
+      </c>
+      <c r="H53" s="21">
+        <v>37028</v>
+      </c>
+      <c r="I53" s="19">
+        <v>1</v>
+      </c>
+      <c r="J53" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K53" s="19">
+        <v>16</v>
+      </c>
+      <c r="L53" s="19">
+        <v>24</v>
+      </c>
+      <c r="M53" s="19">
+        <v>-8</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" s="19">
+        <v>51</v>
+      </c>
+      <c r="P53" s="22">
+        <v>51</v>
+      </c>
+      <c r="Q53" s="35">
+        <f t="shared" si="0"/>
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="22">
+        <v>52</v>
+      </c>
+      <c r="H54" s="21">
+        <v>32603</v>
+      </c>
+      <c r="I54" s="19">
+        <v>1</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="K54" s="19">
+        <v>17</v>
+      </c>
+      <c r="L54" s="19">
+        <v>28</v>
+      </c>
+      <c r="M54" s="19">
+        <v>-11</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O54" s="19">
+        <v>57</v>
+      </c>
+      <c r="P54" s="22">
+        <v>57</v>
+      </c>
+      <c r="Q54" s="35">
+        <f t="shared" si="0"/>
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="22">
+        <v>60</v>
+      </c>
+      <c r="H55" s="21">
+        <v>29733</v>
+      </c>
+      <c r="I55" s="19">
+        <v>4</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="19">
+        <v>22</v>
+      </c>
+      <c r="L55" s="19">
+        <v>16</v>
+      </c>
+      <c r="M55" s="19">
+        <v>6</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O55" s="19">
+        <v>15</v>
+      </c>
+      <c r="P55" s="22">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="35">
+        <f t="shared" si="0"/>
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="22">
+        <v>35</v>
+      </c>
+      <c r="H56" s="21">
+        <v>36219</v>
+      </c>
+      <c r="I56" s="19">
+        <v>3</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="K56" s="19">
+        <v>19</v>
+      </c>
+      <c r="L56" s="19">
+        <v>18</v>
+      </c>
+      <c r="M56" s="19">
+        <v>1</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O56" s="19">
+        <v>29</v>
+      </c>
+      <c r="P56" s="22">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="35">
+        <f t="shared" si="0"/>
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="22">
+        <v>26</v>
+      </c>
+      <c r="H57" s="21">
+        <v>36128</v>
+      </c>
+      <c r="I57" s="22">
+        <v>1</v>
+      </c>
+      <c r="J57" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="K57" s="22">
+        <v>19</v>
+      </c>
+      <c r="L57" s="22">
+        <v>26</v>
+      </c>
+      <c r="M57" s="22">
+        <v>-7</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="22">
+        <v>56</v>
+      </c>
+      <c r="P57" s="22">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="35">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="22">
+        <v>25</v>
+      </c>
+      <c r="H58" s="21">
+        <v>26219</v>
+      </c>
+      <c r="I58" s="22">
+        <v>2</v>
+      </c>
+      <c r="J58" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="K58" s="22">
+        <v>20</v>
+      </c>
+      <c r="L58" s="22">
+        <v>26</v>
+      </c>
+      <c r="M58" s="22">
+        <v>-6</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O58" s="22">
+        <v>43</v>
+      </c>
+      <c r="P58" s="22">
+        <v>30</v>
+      </c>
+      <c r="Q58" s="35">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="22">
+        <v>20</v>
+      </c>
+      <c r="H59" s="21">
+        <v>27427</v>
+      </c>
+      <c r="I59" s="22">
+        <v>4</v>
+      </c>
+      <c r="J59" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="K59" s="22">
+        <v>25</v>
+      </c>
+      <c r="L59" s="22">
+        <v>15</v>
+      </c>
+      <c r="M59" s="22">
+        <v>10</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O59" s="22">
+        <v>18</v>
+      </c>
+      <c r="P59" s="22">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="35">
+        <f t="shared" si="0"/>
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="22">
+        <v>31</v>
+      </c>
+      <c r="H60" s="21">
+        <v>28628</v>
+      </c>
+      <c r="I60" s="22">
+        <v>2</v>
+      </c>
+      <c r="J60" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K60" s="22">
+        <v>19</v>
+      </c>
+      <c r="L60" s="22">
+        <v>19</v>
+      </c>
+      <c r="M60" s="22">
+        <v>0</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O60" s="22">
+        <v>41</v>
+      </c>
+      <c r="P60" s="22">
+        <v>44</v>
+      </c>
+      <c r="Q60" s="35">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="22">
+        <v>50</v>
+      </c>
+      <c r="H61" s="21">
+        <v>28491</v>
+      </c>
+      <c r="I61" s="22">
+        <v>3</v>
+      </c>
+      <c r="J61" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="22">
+        <v>23</v>
+      </c>
+      <c r="L61" s="22">
+        <v>23</v>
+      </c>
+      <c r="M61" s="22">
+        <v>0</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O61" s="22">
+        <v>33</v>
+      </c>
+      <c r="P61" s="22">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="35">
+        <f t="shared" si="0"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="22">
+        <v>62</v>
+      </c>
+      <c r="H62" s="21">
+        <v>34058</v>
+      </c>
+      <c r="I62" s="22">
+        <v>1</v>
+      </c>
+      <c r="J62" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="K62" s="22">
+        <v>15</v>
+      </c>
+      <c r="L62" s="22">
+        <v>27</v>
+      </c>
+      <c r="M62" s="22">
+        <v>-12</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O62" s="22">
+        <v>60</v>
+      </c>
+      <c r="P62" s="22">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="22">
+        <v>67</v>
+      </c>
+      <c r="H63" s="21">
+        <v>22885</v>
+      </c>
+      <c r="I63" s="22">
+        <v>0</v>
+      </c>
+      <c r="J63" s="22">
+        <v>0</v>
+      </c>
+      <c r="K63" s="22">
+        <v>14</v>
+      </c>
+      <c r="L63" s="22">
+        <v>30</v>
+      </c>
+      <c r="M63" s="22">
+        <v>-16</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O63" s="22">
+        <v>64</v>
+      </c>
+      <c r="P63" s="22">
+        <v>64</v>
+      </c>
+      <c r="Q63" s="35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="22">
+        <v>41</v>
+      </c>
+      <c r="H64" s="21">
+        <v>36875</v>
+      </c>
+      <c r="I64" s="22">
+        <v>3</v>
+      </c>
+      <c r="J64" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="22">
+        <v>22</v>
+      </c>
+      <c r="L64" s="22">
+        <v>22</v>
+      </c>
+      <c r="M64" s="22">
+        <v>0</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O64" s="22">
+        <v>35</v>
+      </c>
+      <c r="P64" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="35">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="22">
+        <v>60</v>
+      </c>
+      <c r="H65" s="21">
+        <v>37393</v>
+      </c>
+      <c r="I65" s="22">
+        <v>2</v>
+      </c>
+      <c r="J65" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="K65" s="22">
+        <v>19</v>
+      </c>
+      <c r="L65" s="22">
+        <v>27</v>
+      </c>
+      <c r="M65" s="22">
+        <v>-8</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O65" s="22">
+        <v>47</v>
+      </c>
+      <c r="P65" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <v>43610</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="22">
+        <v>62</v>
+      </c>
+      <c r="H66" s="21">
+        <v>36336</v>
+      </c>
+      <c r="I66" s="22">
+        <v>0</v>
+      </c>
+      <c r="J66" s="22">
+        <v>0</v>
+      </c>
+      <c r="K66" s="22">
+        <v>11</v>
+      </c>
+      <c r="L66" s="22">
+        <v>25</v>
+      </c>
+      <c r="M66" s="22">
+        <v>-14</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O66" s="22">
+        <v>63</v>
+      </c>
+      <c r="P66" s="22">
+        <v>63</v>
+      </c>
+      <c r="Q66" s="35">
+        <f t="shared" si="0"/>
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{F717059F-B564-4243-839D-56F4CA490CCA}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,18 +6225,22 @@
       <c r="F85" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D419A9-B4F2-4ADD-85F0-A1275142E814}">
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:M4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2366,34 +6293,34 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
+        <v>52</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="22">
-        <v>6</v>
-      </c>
-      <c r="F2" s="22">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22">
-        <v>30</v>
-      </c>
-      <c r="H2" s="22">
-        <v>4</v>
-      </c>
-      <c r="I2" s="22">
-        <v>26</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="F2" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="19">
+        <v>13</v>
+      </c>
+      <c r="H2" s="19">
+        <v>22</v>
+      </c>
+      <c r="I2" s="19">
+        <v>-9</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="K2" s="21">
@@ -2408,31 +6335,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H3" s="22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I3" s="22">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>70</v>
@@ -2449,10 +6376,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>11</v>
@@ -2461,19 +6388,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="22">
         <v>1</v>
       </c>
       <c r="G4" s="22">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4" s="22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I4" s="22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>70</v>
@@ -2490,34 +6417,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="22">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H5" s="22">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I5" s="22">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="21">
         <v>43610</v>
@@ -2531,10 +6458,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>11</v>
@@ -2543,19 +6470,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="22">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="22">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H6" s="22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>70</v>
@@ -2572,10 +6499,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>11</v>
@@ -2584,19 +6511,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="22">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H7" s="22">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I7" s="22">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>70</v>
@@ -2613,13 +6540,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>6</v>
@@ -2631,13 +6558,13 @@
         <v>0.83</v>
       </c>
       <c r="G8" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>70</v>
@@ -2654,31 +6581,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="22">
         <v>19</v>
       </c>
       <c r="I9" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>70</v>
@@ -2695,13 +6622,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>6</v>
@@ -2713,13 +6640,13 @@
         <v>0.83</v>
       </c>
       <c r="G10" s="22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" s="22">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I10" s="22">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>70</v>
@@ -2736,13 +6663,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>6</v>
@@ -2754,13 +6681,13 @@
         <v>0.8</v>
       </c>
       <c r="G11" s="22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H11" s="22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>70</v>
@@ -2777,10 +6704,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>11</v>
@@ -2789,19 +6716,19 @@
         <v>6</v>
       </c>
       <c r="E12" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="22">
         <v>24</v>
       </c>
       <c r="H12" s="22">
+        <v>11</v>
+      </c>
+      <c r="I12" s="22">
         <v>13</v>
-      </c>
-      <c r="I12" s="22">
-        <v>11</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>70</v>
@@ -2818,10 +6745,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>20</v>
@@ -2830,22 +6757,22 @@
         <v>6</v>
       </c>
       <c r="E13" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G13" s="22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H13" s="22">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I13" s="22">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="21">
         <v>43610</v>
@@ -2859,10 +6786,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>11</v>
@@ -2871,22 +6798,22 @@
         <v>6</v>
       </c>
       <c r="E14" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G14" s="22">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H14" s="22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I14" s="22">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="21">
         <v>43610</v>
@@ -2900,31 +6827,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="22">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="G15" s="22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I15" s="22">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>70</v>
@@ -2941,28 +6868,28 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="22">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="G16" s="22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H16" s="22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="22">
         <v>6</v>
@@ -2982,31 +6909,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H17" s="22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>70</v>
@@ -3023,13 +6950,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>6</v>
@@ -3041,13 +6968,13 @@
         <v>0.8</v>
       </c>
       <c r="G18" s="22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H18" s="22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>70</v>
@@ -3064,10 +6991,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>13</v>
@@ -3076,22 +7003,22 @@
         <v>6</v>
       </c>
       <c r="E19" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="22">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="G19" s="22">
+        <v>14</v>
+      </c>
+      <c r="H19" s="22">
         <v>25</v>
       </c>
-      <c r="H19" s="22">
-        <v>15</v>
-      </c>
       <c r="I19" s="22">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="21">
         <v>43610</v>
@@ -3105,31 +7032,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="22">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H20" s="22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" s="22" t="s">
         <v>70</v>
@@ -3146,31 +7073,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
+        <v>28</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="22">
+        <v>21</v>
+      </c>
+      <c r="H21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="22">
-        <v>4</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.67</v>
-      </c>
-      <c r="G21" s="22">
-        <v>26</v>
-      </c>
-      <c r="H21" s="22">
-        <v>19</v>
-      </c>
       <c r="I21" s="22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>70</v>
@@ -3187,31 +7114,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="22">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="22">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>70</v>
@@ -3228,31 +7155,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="22">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G23" s="22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H23" s="22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I23" s="22">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>70</v>
@@ -3269,13 +7196,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
@@ -3284,16 +7211,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I24" s="22">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>70</v>
@@ -3310,13 +7237,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
@@ -3328,13 +7255,13 @@
         <v>0.6</v>
       </c>
       <c r="G25" s="22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" s="22">
         <v>17</v>
       </c>
       <c r="I25" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>70</v>
@@ -3351,31 +7278,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F26" s="22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26" s="22">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I26" s="22">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>70</v>
@@ -3392,31 +7319,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="22">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27" s="22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I27" s="22">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="J27" s="22" t="s">
         <v>70</v>
@@ -3433,31 +7360,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="22">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H28" s="22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I28" s="22">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>70</v>
@@ -3474,13 +7401,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
@@ -3492,13 +7419,13 @@
         <v>0.6</v>
       </c>
       <c r="G29" s="22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H29" s="22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>70</v>
@@ -3515,13 +7442,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
@@ -3533,13 +7460,13 @@
         <v>0.6</v>
       </c>
       <c r="G30" s="22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H30" s="22">
         <v>18</v>
       </c>
       <c r="I30" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>70</v>
@@ -3556,13 +7483,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>6</v>
@@ -3577,10 +7504,10 @@
         <v>18</v>
       </c>
       <c r="H31" s="22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>70</v>
@@ -3597,31 +7524,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="22">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G32" s="22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>70</v>
@@ -3638,31 +7565,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G33" s="22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H33" s="22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>70</v>
@@ -3679,13 +7606,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>6</v>
@@ -3697,13 +7624,13 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="22">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>70</v>
@@ -3720,31 +7647,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G35" s="22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H35" s="22">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>70</v>
@@ -3761,31 +7688,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="22">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G36" s="22">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" s="22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="22">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>70</v>
@@ -3802,10 +7729,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>11</v>
@@ -3814,19 +7741,19 @@
         <v>6</v>
       </c>
       <c r="E37" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G37" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I37" s="22">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>70</v>
@@ -3843,31 +7770,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G38" s="22">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H38" s="22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I38" s="22">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J38" s="22" t="s">
         <v>70</v>
@@ -3884,31 +7811,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="22">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G39" s="22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H39" s="22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I39" s="22">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>70</v>
@@ -3925,34 +7852,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G40" s="22">
+        <v>10</v>
+      </c>
+      <c r="H40" s="22">
         <v>21</v>
       </c>
-      <c r="H40" s="22">
-        <v>27</v>
-      </c>
       <c r="I40" s="22">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" s="21">
         <v>43610</v>
@@ -3966,34 +7893,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="22">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G41" s="22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" s="22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I41" s="22">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K41" s="21">
         <v>43610</v>
@@ -4007,31 +7934,31 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="22">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G42" s="22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H42" s="22">
         <v>19</v>
       </c>
       <c r="I42" s="22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J42" s="22" t="s">
         <v>70</v>
@@ -4048,31 +7975,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="22">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G43" s="22">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H43" s="22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I43" s="22">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>70</v>
@@ -4089,31 +8016,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" s="22">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G44" s="22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H44" s="22">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I44" s="22">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>70</v>
@@ -4130,31 +8057,31 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="22">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H45" s="22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="22">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>70</v>
@@ -4171,34 +8098,34 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C46" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="22">
+        <v>11</v>
+      </c>
+      <c r="H46" s="22">
         <v>24</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="22">
-        <v>2</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="G46" s="22">
-        <v>19</v>
-      </c>
-      <c r="H46" s="22">
-        <v>25</v>
-      </c>
       <c r="I46" s="22">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46" s="21">
         <v>43610</v>
@@ -4212,10 +8139,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>34</v>
@@ -4224,19 +8151,19 @@
         <v>6</v>
       </c>
       <c r="E47" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="22">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G47" s="22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H47" s="22">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="22">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="J47" s="22" t="s">
         <v>70</v>
@@ -4253,31 +8180,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="22">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G48" s="22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H48" s="22">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I48" s="22">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>70</v>
@@ -4294,28 +8221,28 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="22">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H49" s="22">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I49" s="22">
         <v>-3</v>
@@ -4335,31 +8262,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" s="22">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="G50" s="22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H50" s="22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I50" s="22">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>70</v>
@@ -4376,31 +8303,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="22">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="G51" s="22">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H51" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" s="22">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>70</v>
@@ -4417,13 +8344,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>6</v>
@@ -4432,19 +8359,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="22">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G52" s="22">
         <v>16</v>
       </c>
       <c r="H52" s="22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I52" s="22">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K52" s="21">
         <v>43610</v>
@@ -4458,13 +8385,13 @@
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>6</v>
@@ -4476,13 +8403,13 @@
         <v>0.2</v>
       </c>
       <c r="G53" s="23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" s="23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" s="23">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="J53" s="23" t="s">
         <v>70</v>
@@ -4499,13 +8426,13 @@
     </row>
     <row r="54" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>6</v>
@@ -4514,16 +8441,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="22">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G54" s="22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H54" s="22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I54" s="22">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>71</v>
@@ -4540,34 +8467,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" s="22">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G55" s="22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H55" s="22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" s="22">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55" s="21">
         <v>43610</v>
@@ -4581,34 +8508,34 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="22">
+        <v>3</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="G56" s="22">
+        <v>19</v>
+      </c>
+      <c r="H56" s="22">
+        <v>18</v>
+      </c>
+      <c r="I56" s="22">
         <v>1</v>
       </c>
-      <c r="F56" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="G56" s="22">
-        <v>11</v>
-      </c>
-      <c r="H56" s="22">
-        <v>24</v>
-      </c>
-      <c r="I56" s="22">
-        <v>-13</v>
-      </c>
       <c r="J56" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K56" s="21">
         <v>43610</v>
@@ -4663,34 +8590,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C58" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="22">
+        <v>2</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="G58" s="22">
         <v>20</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="22">
-        <v>1</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="G58" s="22">
-        <v>17</v>
-      </c>
       <c r="H58" s="22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I58" s="22">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58" s="21">
         <v>43610</v>
@@ -4704,34 +8631,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" s="22">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G59" s="22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H59" s="22">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I59" s="22">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K59" s="21">
         <v>43610</v>
@@ -4745,34 +8672,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="22">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G60" s="22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H60" s="22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I60" s="22">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60" s="21">
         <v>43610</v>
@@ -4786,34 +8713,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="22">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="22">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H61" s="22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I61" s="22">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61" s="21">
         <v>43610</v>
@@ -4827,13 +8754,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>6</v>
@@ -4845,13 +8772,13 @@
         <v>0.17</v>
       </c>
       <c r="G62" s="22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I62" s="22">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>71</v>
@@ -4868,10 +8795,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>11</v>
@@ -4886,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H63" s="22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I63" s="22">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>71</v>
@@ -4909,34 +8836,34 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="22">
+        <v>3</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="22">
+        <v>22</v>
+      </c>
+      <c r="H64" s="22">
+        <v>22</v>
+      </c>
+      <c r="I64" s="22">
         <v>0</v>
       </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>11</v>
-      </c>
-      <c r="H64" s="22">
-        <v>25</v>
-      </c>
-      <c r="I64" s="22">
-        <v>-14</v>
-      </c>
       <c r="J64" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K64" s="21">
         <v>43610</v>
@@ -4950,34 +8877,34 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B65" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="22">
+        <v>2</v>
+      </c>
+      <c r="F65" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="G65" s="22">
         <v>19</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="22">
-        <v>0</v>
-      </c>
-      <c r="F65" s="22">
-        <v>0</v>
-      </c>
-      <c r="G65" s="22">
-        <v>14</v>
-      </c>
       <c r="H65" s="22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I65" s="22">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K65" s="21">
         <v>43610</v>
@@ -4991,13 +8918,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>6</v>
@@ -5009,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H66" s="22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I66" s="22">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="J66" s="22" t="s">
         <v>71</v>
@@ -5287,8 +9214,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{75D419A9-B4F2-4ADD-85F0-A1275142E814}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M83">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M66">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5296,12 +9223,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602C8D9A-B729-4092-9AA8-2B568B80BAF8}">
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,19 +9267,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="21">
-        <v>36324</v>
+        <v>28313</v>
       </c>
       <c r="F2" s="21">
         <v>43610</v>
@@ -5366,19 +9293,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="21">
-        <v>29969</v>
+        <v>36099</v>
       </c>
       <c r="F3" s="21">
         <v>43610</v>
@@ -5392,10 +9319,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>11</v>
@@ -5404,7 +9331,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="21">
-        <v>32319</v>
+        <v>29969</v>
       </c>
       <c r="F4" s="21">
         <v>43610</v>
@@ -5418,19 +9345,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="21">
-        <v>30573</v>
+        <v>35185</v>
       </c>
       <c r="F5" s="21">
         <v>43610</v>
@@ -5444,19 +9371,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="21">
-        <v>35324</v>
+        <v>37031</v>
       </c>
       <c r="F6" s="21">
         <v>43610</v>
@@ -5470,10 +9397,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>11</v>
@@ -5482,7 +9409,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="21">
-        <v>37101</v>
+        <v>26419</v>
       </c>
       <c r="F7" s="21">
         <v>43610</v>
@@ -5496,19 +9423,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="21">
-        <v>37031</v>
+        <v>33038</v>
       </c>
       <c r="F8" s="21">
         <v>43610</v>
@@ -5522,19 +9449,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="21">
-        <v>37115</v>
+        <v>37662</v>
       </c>
       <c r="F9" s="21">
         <v>43610</v>
@@ -5548,19 +9475,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="21">
-        <v>33038</v>
+        <v>30573</v>
       </c>
       <c r="F10" s="21">
         <v>43610</v>
@@ -5574,19 +9501,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="21">
-        <v>36782</v>
+        <v>33595</v>
       </c>
       <c r="F11" s="21">
         <v>43610</v>
@@ -5600,19 +9527,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="21">
-        <v>33673</v>
+        <v>35542</v>
       </c>
       <c r="F12" s="21">
         <v>43610</v>
@@ -5626,19 +9553,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="21">
-        <v>33430</v>
+        <v>32654</v>
       </c>
       <c r="F13" s="21">
         <v>43610</v>
@@ -5652,19 +9579,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="21">
-        <v>29733</v>
+        <v>34315</v>
       </c>
       <c r="F14" s="21">
         <v>43610</v>
@@ -5678,19 +9605,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="21">
-        <v>33595</v>
+        <v>34349</v>
       </c>
       <c r="F15" s="21">
         <v>43610</v>
@@ -5704,19 +9631,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="21">
-        <v>25773</v>
+        <v>36046</v>
       </c>
       <c r="F16" s="21">
         <v>43610</v>
@@ -5730,19 +9657,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="21">
-        <v>37683</v>
+        <v>31413</v>
       </c>
       <c r="F17" s="21">
         <v>43610</v>
@@ -5756,19 +9683,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="21">
-        <v>35542</v>
+        <v>33673</v>
       </c>
       <c r="F18" s="21">
         <v>43610</v>
@@ -5782,19 +9709,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="21">
-        <v>36046</v>
+        <v>21027</v>
       </c>
       <c r="F19" s="21">
         <v>43610</v>
@@ -5808,19 +9735,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="21">
-        <v>31158</v>
+        <v>30503</v>
       </c>
       <c r="F20" s="21">
         <v>43610</v>
@@ -5834,10 +9761,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>11</v>
@@ -5846,7 +9773,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="21">
-        <v>34789</v>
+        <v>24801</v>
       </c>
       <c r="F21" s="21">
         <v>43610</v>
@@ -5860,19 +9787,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="21">
-        <v>36099</v>
+        <v>26996</v>
       </c>
       <c r="F22" s="21">
         <v>43610</v>
@@ -5886,19 +9813,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="21">
-        <v>36047</v>
+        <v>37050</v>
       </c>
       <c r="F23" s="21">
         <v>43610</v>
@@ -5912,19 +9839,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="21">
-        <v>30503</v>
+        <v>36441</v>
       </c>
       <c r="F24" s="21">
         <v>43610</v>
@@ -5938,10 +9865,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>34</v>
@@ -5950,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="21">
-        <v>33414</v>
+        <v>29600</v>
       </c>
       <c r="F25" s="21">
         <v>43610</v>
@@ -5964,19 +9891,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="21">
-        <v>30695</v>
+        <v>36324</v>
       </c>
       <c r="F26" s="21">
         <v>43610</v>
@@ -5990,10 +9917,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -6002,7 +9929,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="21">
-        <v>36219</v>
+        <v>35450</v>
       </c>
       <c r="F27" s="21">
         <v>43610</v>
@@ -6016,19 +9943,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="21">
-        <v>31413</v>
+        <v>30784</v>
       </c>
       <c r="F28" s="21">
         <v>43610</v>
@@ -6042,19 +9969,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="21">
-        <v>26996</v>
+        <v>30695</v>
       </c>
       <c r="F29" s="21">
         <v>43610</v>
@@ -6068,19 +9995,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="21">
-        <v>30053</v>
+        <v>37683</v>
       </c>
       <c r="F30" s="21">
         <v>43610</v>
@@ -6094,19 +10021,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="21">
-        <v>26219</v>
+        <v>33414</v>
       </c>
       <c r="F31" s="21">
         <v>43610</v>
@@ -6120,19 +10047,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="21">
-        <v>34349</v>
+        <v>28784</v>
       </c>
       <c r="F32" s="21">
         <v>43610</v>
@@ -6146,19 +10073,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="21">
-        <v>37393</v>
+        <v>31158</v>
       </c>
       <c r="F33" s="21">
         <v>43610</v>
@@ -6172,19 +10099,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="21">
-        <v>27427</v>
+        <v>30053</v>
       </c>
       <c r="F34" s="21">
         <v>43610</v>
@@ -6198,19 +10125,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="21">
-        <v>28784</v>
+        <v>37115</v>
       </c>
       <c r="F35" s="21">
         <v>43610</v>
@@ -6224,19 +10151,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="21">
-        <v>36508</v>
+        <v>17990</v>
       </c>
       <c r="F36" s="21">
         <v>43610</v>
@@ -6250,19 +10177,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="21">
-        <v>29600</v>
+        <v>34789</v>
       </c>
       <c r="F37" s="21">
         <v>43610</v>
@@ -6276,19 +10203,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="21">
-        <v>24801</v>
+        <v>36677</v>
       </c>
       <c r="F38" s="21">
         <v>43610</v>
@@ -6302,19 +10229,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="21">
-        <v>37662</v>
+        <v>36047</v>
       </c>
       <c r="F39" s="21">
         <v>43610</v>
@@ -6328,19 +10255,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="21">
-        <v>28491</v>
+        <v>36950</v>
       </c>
       <c r="F40" s="21">
         <v>43610</v>
@@ -6354,19 +10281,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="21">
-        <v>36875</v>
+        <v>33420</v>
       </c>
       <c r="F41" s="21">
         <v>43610</v>
@@ -6380,19 +10307,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="21">
-        <v>37101</v>
+        <v>26020</v>
       </c>
       <c r="F42" s="21">
         <v>43610</v>
@@ -6406,19 +10333,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="21">
-        <v>36441</v>
+        <v>36782</v>
       </c>
       <c r="F43" s="21">
         <v>43610</v>
@@ -6432,10 +10359,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>11</v>
@@ -6444,7 +10371,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="21">
-        <v>26419</v>
+        <v>32319</v>
       </c>
       <c r="F44" s="21">
         <v>43610</v>
@@ -6458,19 +10385,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="21">
-        <v>28628</v>
+        <v>33430</v>
       </c>
       <c r="F45" s="21">
         <v>43610</v>
@@ -6484,19 +10411,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="21">
-        <v>30784</v>
+        <v>27395</v>
       </c>
       <c r="F46" s="21">
         <v>43610</v>
@@ -6510,19 +10437,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="21">
-        <v>37050</v>
+        <v>35324</v>
       </c>
       <c r="F47" s="21">
         <v>43610</v>
@@ -6536,10 +10463,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>34</v>
@@ -6548,7 +10475,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="21">
-        <v>17990</v>
+        <v>25773</v>
       </c>
       <c r="F48" s="21">
         <v>43610</v>
@@ -6562,19 +10489,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="21">
-        <v>26020</v>
+        <v>37101</v>
       </c>
       <c r="F49" s="21">
         <v>43610</v>
@@ -6588,19 +10515,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="21">
-        <v>35450</v>
+        <v>37101</v>
       </c>
       <c r="F50" s="21">
         <v>43610</v>
@@ -6614,19 +10541,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="21">
-        <v>36677</v>
+        <v>36508</v>
       </c>
       <c r="F51" s="21">
         <v>43610</v>
@@ -6640,19 +10567,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="21">
-        <v>37028</v>
+        <v>37035</v>
       </c>
       <c r="F52" s="21">
         <v>43610</v>
@@ -6666,19 +10593,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="21">
-        <v>28313</v>
+        <v>37028</v>
       </c>
       <c r="F53" s="21">
         <v>43610</v>
@@ -6692,19 +10619,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="21">
-        <v>35185</v>
+        <v>32603</v>
       </c>
       <c r="F54" s="21">
         <v>43610</v>
@@ -6718,19 +10645,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="21">
-        <v>36950</v>
+        <v>29733</v>
       </c>
       <c r="F55" s="21">
         <v>43610</v>
@@ -6744,19 +10671,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="21">
-        <v>27395</v>
+        <v>36219</v>
       </c>
       <c r="F56" s="21">
         <v>43610</v>
@@ -6796,19 +10723,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="21">
-        <v>32603</v>
+        <v>26219</v>
       </c>
       <c r="F58" s="21">
         <v>43610</v>
@@ -6822,19 +10749,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="21">
-        <v>37035</v>
+        <v>27427</v>
       </c>
       <c r="F59" s="21">
         <v>43610</v>
@@ -6848,19 +10775,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="21">
-        <v>21027</v>
+        <v>28628</v>
       </c>
       <c r="F60" s="21">
         <v>43610</v>
@@ -6874,19 +10801,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="21">
-        <v>34058</v>
+        <v>28491</v>
       </c>
       <c r="F61" s="21">
         <v>43610</v>
@@ -6900,19 +10827,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="21">
-        <v>33420</v>
+        <v>34058</v>
       </c>
       <c r="F62" s="21">
         <v>43610</v>
@@ -6926,10 +10853,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>11</v>
@@ -6938,7 +10865,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="21">
-        <v>34315</v>
+        <v>22885</v>
       </c>
       <c r="F63" s="21">
         <v>43610</v>
@@ -6952,19 +10879,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="21">
-        <v>36336</v>
+        <v>36875</v>
       </c>
       <c r="F64" s="21">
         <v>43610</v>
@@ -6978,19 +10905,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="21">
-        <v>32654</v>
+        <v>37393</v>
       </c>
       <c r="F65" s="21">
         <v>43610</v>
@@ -7004,19 +10931,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="21">
-        <v>22885</v>
+        <v>36336</v>
       </c>
       <c r="F66" s="21">
         <v>43610</v>
@@ -7199,13 +11126,17 @@
       <c r="H83" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{602C8D9A-B729-4092-9AA8-2B568B80BAF8}"/>
+  <autoFilter ref="A1:H1" xr:uid="{602C8D9A-B729-4092-9AA8-2B568B80BAF8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961ADD4-8A83-4EB5-9918-F2024588BC89}">
   <dimension ref="A1:K404"/>
   <sheetViews>
@@ -19998,11 +23929,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1442A-E3AE-4EBE-82BC-3D7AC1C3AED5}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
